--- a/pH_ctrl=None, TS1/pH_levels_over_time.xlsx
+++ b/pH_ctrl=None, TS1/pH_levels_over_time.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B127"/>
+  <dimension ref="A1:B137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,1007 +450,1087 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.874060615065979</v>
+        <v>5.874060828191106</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8.459750593551976e-08</v>
+        <v>8.44344120527758e-08</v>
       </c>
       <c r="B3" t="n">
-        <v>5.874067349455193</v>
+        <v>5.874067730418776</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.691950118710395e-07</v>
+        <v>1.688688241055516e-07</v>
       </c>
       <c r="B4" t="n">
-        <v>5.874074084911697</v>
+        <v>5.874074633716597</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.015170071226237e-06</v>
+        <v>1.01321294463331e-06</v>
       </c>
       <c r="B5" t="n">
-        <v>5.874141413807251</v>
+        <v>5.874143641372974</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.861145130581435e-06</v>
+        <v>1.857557065161068e-06</v>
       </c>
       <c r="B6" t="n">
-        <v>5.874208705327821</v>
+        <v>5.874212612167254</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.767075276451456e-06</v>
+        <v>5.754177704121269e-06</v>
       </c>
       <c r="B7" t="n">
-        <v>5.874518059193441</v>
+        <v>5.874529582274176</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>9.673005422321477e-06</v>
+        <v>9.65079834308147e-06</v>
       </c>
       <c r="B8" t="n">
-        <v>5.87482590301927</v>
+        <v>5.874845052839656</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.957788056171248e-05</v>
+        <v>1.953831375873638e-05</v>
       </c>
       <c r="B9" t="n">
-        <v>5.875597153176858</v>
+        <v>5.875636193250918</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.948275570110348e-05</v>
+        <v>2.942582917439129e-05</v>
       </c>
       <c r="B10" t="n">
-        <v>5.876358568463595</v>
+        <v>5.87641755246166</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5.690591994606472e-05</v>
+        <v>5.679037502051856e-05</v>
       </c>
       <c r="B11" t="n">
-        <v>5.878421257520236</v>
+        <v>5.878534916681714</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8.432908419102595e-05</v>
+        <v>8.415492086664583e-05</v>
       </c>
       <c r="B12" t="n">
-        <v>5.880412490619447</v>
+        <v>5.88058126204345</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.0001117522484359872</v>
+        <v>0.0001115194667127731</v>
       </c>
       <c r="B13" t="n">
-        <v>5.882332065047922</v>
+        <v>5.882556370382997</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.0001841011963192698</v>
+        <v>0.0001839379559720692</v>
       </c>
       <c r="B14" t="n">
-        <v>5.887089743758947</v>
+        <v>5.887476823751615</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.0002564501442025525</v>
+        <v>0.0002563564452313652</v>
       </c>
       <c r="B15" t="n">
-        <v>5.89147960658943</v>
+        <v>5.892029201492635</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.0003287990920858351</v>
+        <v>0.0003287749344906613</v>
       </c>
       <c r="B16" t="n">
-        <v>5.895590708229786</v>
+        <v>5.896302762653251</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.0004010584117598332</v>
+        <v>0.0004011076079077413</v>
       </c>
       <c r="B17" t="n">
-        <v>5.89954354272303</v>
+        <v>5.900418209991147</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.0004733177314338314</v>
+        <v>0.0004734402813248213</v>
       </c>
       <c r="B18" t="n">
-        <v>5.90340631899924</v>
+        <v>5.904444002182586</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.0005455770511078296</v>
+        <v>0.0005457729547419013</v>
       </c>
       <c r="B19" t="n">
-        <v>5.9072094041271</v>
+        <v>5.908410496164604</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.0006488964964556818</v>
+        <v>0.0006491230396743428</v>
       </c>
       <c r="B20" t="n">
-        <v>5.912620575691215</v>
+        <v>5.914052472311079</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.0007522159418035341</v>
+        <v>0.0007524731246067843</v>
       </c>
       <c r="B21" t="n">
-        <v>5.917989541802745</v>
+        <v>5.91965334747375</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.0008555353871513864</v>
+        <v>0.0008558232095392258</v>
       </c>
       <c r="B22" t="n">
-        <v>5.923333932456195</v>
+        <v>5.925230835684388</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.0009588548324992387</v>
+        <v>0.0009591732944716673</v>
       </c>
       <c r="B23" t="n">
-        <v>5.928647421722263</v>
+        <v>5.930778589937819</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.0012889126794307</v>
+        <v>0.001288867131547408</v>
       </c>
       <c r="B24" t="n">
-        <v>5.945456496060267</v>
+        <v>5.948319516071317</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.001618970526362162</v>
+        <v>0.001618560968623148</v>
       </c>
       <c r="B25" t="n">
-        <v>5.962003418242753</v>
+        <v>5.965610712595583</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.001949028373293624</v>
+        <v>0.001948254805698888</v>
       </c>
       <c r="B26" t="n">
-        <v>5.97828547059524</v>
+        <v>5.982649227758221</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.002625540979491724</v>
+        <v>0.002624999409169471</v>
       </c>
       <c r="B27" t="n">
-        <v>6.010885086597861</v>
+        <v>6.016886376127802</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.003302053585689825</v>
+        <v>0.003301744012640054</v>
       </c>
       <c r="B28" t="n">
-        <v>6.042342664895182</v>
+        <v>6.050026865419436</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.003978566191887925</v>
+        <v>0.003978488616110636</v>
       </c>
       <c r="B29" t="n">
-        <v>6.072634046906244</v>
+        <v>6.082044136795679</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.005413458124276922</v>
+        <v>0.005408377240865094</v>
       </c>
       <c r="B30" t="n">
-        <v>6.132838040117347</v>
+        <v>6.145802318052766</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.006848350056665918</v>
+        <v>0.006838265865619552</v>
       </c>
       <c r="B31" t="n">
-        <v>6.187684731138134</v>
+        <v>6.204400706056755</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.008283241989054915</v>
+        <v>0.00826815449037401</v>
       </c>
       <c r="B32" t="n">
-        <v>6.237403787912053</v>
+        <v>6.258047233031236</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.009718133921443911</v>
+        <v>0.009698043115128469</v>
       </c>
       <c r="B33" t="n">
-        <v>6.28223127791454</v>
+        <v>6.30696025231579</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.01191623667816854</v>
+        <v>0.01179506130044661</v>
       </c>
       <c r="B34" t="n">
-        <v>6.342227088549458</v>
+        <v>6.370818806656164</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.01411433943489316</v>
+        <v>0.01389207948576475</v>
       </c>
       <c r="B35" t="n">
-        <v>6.392599235963932</v>
+        <v>6.426055950639793</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.01631244219161778</v>
+        <v>0.01598909767108289</v>
       </c>
       <c r="B36" t="n">
-        <v>6.434492441874501</v>
+        <v>6.473659794815007</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.01851054494834241</v>
+        <v>0.01808611585640103</v>
       </c>
       <c r="B37" t="n">
-        <v>6.469259940777463</v>
+        <v>6.514796540785916</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.02070864770506703</v>
+        <v>0.02018313404171918</v>
       </c>
       <c r="B38" t="n">
-        <v>6.49820321635649</v>
+        <v>6.550627396853008</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.02429999610485696</v>
+        <v>0.02363491045622072</v>
       </c>
       <c r="B39" t="n">
-        <v>6.534939503778906</v>
+        <v>6.59976505578149</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.02789134450464689</v>
+        <v>0.02708668687072226</v>
       </c>
       <c r="B40" t="n">
-        <v>6.562166254106591</v>
+        <v>6.640043796844278</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.03148269290443682</v>
+        <v>0.0305384632852238</v>
       </c>
       <c r="B41" t="n">
-        <v>6.582331559697566</v>
+        <v>6.6736314017378</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.03507404130422674</v>
+        <v>0.03399023969972534</v>
       </c>
       <c r="B42" t="n">
-        <v>6.596758831580202</v>
+        <v>6.701813033047431</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.03956596578638855</v>
+        <v>0.03858488153015053</v>
       </c>
       <c r="B43" t="n">
-        <v>6.6080605801772</v>
+        <v>6.732198837416041</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.04405789026855036</v>
+        <v>0.04317952336057572</v>
       </c>
       <c r="B44" t="n">
-        <v>6.613363878999703</v>
+        <v>6.756145562025657</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.04854981475071218</v>
+        <v>0.04777416519100091</v>
       </c>
       <c r="B45" t="n">
-        <v>6.613645737096889</v>
+        <v>6.774813535267325</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.05304173923287399</v>
+        <v>0.0523688070214261</v>
       </c>
       <c r="B46" t="n">
-        <v>6.609635424428624</v>
+        <v>6.788904893208064</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.0581827685218143</v>
+        <v>0.05779950983047549</v>
       </c>
       <c r="B47" t="n">
-        <v>6.600572745745293</v>
+        <v>6.800549974559157</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.06206003196095746</v>
+        <v>0.06172288350316231</v>
       </c>
       <c r="B48" t="n">
-        <v>6.591113319555411</v>
+        <v>6.806058207923406</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.06593729540010063</v>
+        <v>0.06564625717584913</v>
       </c>
       <c r="B49" t="n">
-        <v>6.579956229419374</v>
+        <v>6.809758026405817</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.06981455883924378</v>
+        <v>0.06956963084853594</v>
       </c>
       <c r="B50" t="n">
-        <v>6.56743320226929</v>
+        <v>6.812008792750155</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.07369182227838694</v>
+        <v>0.07349300452122276</v>
       </c>
       <c r="B51" t="n">
-        <v>6.553793316698172</v>
+        <v>6.813108382248266</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.0775690857175301</v>
+        <v>0.07741637819390958</v>
       </c>
       <c r="B52" t="n">
-        <v>6.539219226118197</v>
+        <v>6.813305122716231</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.08216262190590107</v>
+        <v>0.08197922777780312</v>
       </c>
       <c r="B53" t="n">
-        <v>6.520915088214944</v>
+        <v>6.812671876491882</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.08675615809427203</v>
+        <v>0.08654207736169665</v>
       </c>
       <c r="B54" t="n">
-        <v>6.501568858156129</v>
+        <v>6.81132114348368</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.091349694282643</v>
+        <v>0.09110492694559019</v>
       </c>
       <c r="B55" t="n">
-        <v>6.481192531424456</v>
+        <v>6.809412883193261</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.09594323047101397</v>
+        <v>0.09566777652948373</v>
       </c>
       <c r="B56" t="n">
-        <v>6.459729140595238</v>
+        <v>6.807046498100224</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.1005367666593849</v>
+        <v>0.1002306261133773</v>
       </c>
       <c r="B57" t="n">
-        <v>6.437085488769958</v>
+        <v>6.80429120247573</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.1074680412694859</v>
+        <v>0.1071693723835976</v>
       </c>
       <c r="B58" t="n">
-        <v>6.400421876181064</v>
+        <v>6.799470679761137</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.1143993158795869</v>
+        <v>0.1141081186538179</v>
       </c>
       <c r="B59" t="n">
-        <v>6.360321057081246</v>
+        <v>6.794011031493426</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.1213305904896879</v>
+        <v>0.1210468649240382</v>
       </c>
       <c r="B60" t="n">
-        <v>6.31619629305118</v>
+        <v>6.788001099615573</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.1282618650997889</v>
+        <v>0.1279856111942585</v>
       </c>
       <c r="B61" t="n">
-        <v>6.267366917128086</v>
+        <v>6.781497460378977</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.140428558933312</v>
+        <v>0.1472980786168305</v>
       </c>
       <c r="B62" t="n">
-        <v>6.167905582878131</v>
+        <v>6.761178471228726</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.152595252766835</v>
+        <v>0.1666105460394025</v>
       </c>
       <c r="B63" t="n">
-        <v>6.046898242272966</v>
+        <v>6.737756396207947</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.1606630540602448</v>
+        <v>0.1859230134619745</v>
       </c>
       <c r="B64" t="n">
-        <v>5.952908796586651</v>
+        <v>6.711301316130602</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.1687308553536545</v>
+        <v>0.2168815617630072</v>
       </c>
       <c r="B65" t="n">
-        <v>5.848158218980077</v>
+        <v>6.66179939748763</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.1767986566470643</v>
+        <v>0.2478401100640399</v>
       </c>
       <c r="B66" t="n">
-        <v>5.735613912812733</v>
+        <v>6.601205606134911</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.184866457940474</v>
+        <v>0.2787986583650726</v>
       </c>
       <c r="B67" t="n">
-        <v>5.621176896938147</v>
+        <v>6.524204596747187</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.1948393346665813</v>
+        <v>0.3097572066661053</v>
       </c>
       <c r="B68" t="n">
-        <v>5.486849674836931</v>
+        <v>6.420895257075887</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.2048122113926887</v>
+        <v>0.3276468534608987</v>
       </c>
       <c r="B69" t="n">
-        <v>5.367330840477079</v>
+        <v>6.342491531134935</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.214785088118796</v>
+        <v>0.3455365002556922</v>
       </c>
       <c r="B70" t="n">
-        <v>5.264091104840577</v>
+        <v>6.243439338618372</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.2247579648449033</v>
+        <v>0.3634261470504856</v>
       </c>
       <c r="B71" t="n">
-        <v>5.17540773765516</v>
+        <v>6.115085628761842</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.2343382069099786</v>
+        <v>0.381315793845279</v>
       </c>
       <c r="B72" t="n">
-        <v>5.10164551935677</v>
+        <v>5.945512803337095</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.2439184489750539</v>
+        <v>0.3892108209188075</v>
       </c>
       <c r="B73" t="n">
-        <v>5.036989590438675</v>
+        <v>5.854958124900364</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.2534986910401291</v>
+        <v>0.3971058479923361</v>
       </c>
       <c r="B74" t="n">
-        <v>4.979797704418631</v>
+        <v>5.755274042586184</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.2699992189960838</v>
+        <v>0.4050008750658646</v>
       </c>
       <c r="B75" t="n">
-        <v>4.895129594070419</v>
+        <v>5.649432817706992</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.2741243509850724</v>
+        <v>0.4128959021393931</v>
       </c>
       <c r="B76" t="n">
-        <v>4.87624310470093</v>
+        <v>5.542423644521538</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.278249482974061</v>
+        <v>0.425373783532965</v>
       </c>
       <c r="B77" t="n">
-        <v>4.858137278774805</v>
+        <v>5.383290541277176</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.2823746149630496</v>
+        <v>0.4378516649265369</v>
       </c>
       <c r="B78" t="n">
-        <v>4.840759004996253</v>
+        <v>5.245788006162926</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.2864997469520382</v>
+        <v>0.4503295463201089</v>
       </c>
       <c r="B79" t="n">
-        <v>4.824060463085177</v>
+        <v>5.131184125934912</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.3019608977614025</v>
+        <v>0.4628074277136808</v>
       </c>
       <c r="B80" t="n">
-        <v>4.766792010214753</v>
+        <v>5.03633430769984</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.3174220485707668</v>
+        <v>0.4752853091072527</v>
       </c>
       <c r="B81" t="n">
-        <v>4.716566437570838</v>
+        <v>4.957423311259105</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.3328831993801311</v>
+        <v>0.4797216577364148</v>
       </c>
       <c r="B82" t="n">
-        <v>4.671975116320222</v>
+        <v>4.932577661967837</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.3681307613656972</v>
+        <v>0.484158006365577</v>
       </c>
       <c r="B83" t="n">
-        <v>4.58618558892632</v>
+        <v>4.909167089177514</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.4033783233512633</v>
+        <v>0.4885943549947391</v>
       </c>
       <c r="B84" t="n">
-        <v>4.516239522847073</v>
+        <v>4.887087662973324</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.4386258853368294</v>
+        <v>0.4930307036239013</v>
       </c>
       <c r="B85" t="n">
-        <v>4.457238927322721</v>
+        <v>4.866240177513965</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.4738734473223955</v>
+        <v>0.51024223633027</v>
       </c>
       <c r="B86" t="n">
-        <v>4.406182665801566</v>
+        <v>4.795251706136699</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.5105815183235735</v>
+        <v>0.5274537690366388</v>
       </c>
       <c r="B87" t="n">
-        <v>4.35938074834652</v>
+        <v>4.736872133478771</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.5472895893247514</v>
+        <v>0.5446653017430075</v>
       </c>
       <c r="B88" t="n">
-        <v>4.317638263469602</v>
+        <v>4.687935947076055</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.5839976603259293</v>
+        <v>0.573275458477383</v>
       </c>
       <c r="B89" t="n">
-        <v>4.279943495017601</v>
+        <v>4.621782583539967</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.6207057313271072</v>
+        <v>0.6018856152117585</v>
       </c>
       <c r="B90" t="n">
-        <v>4.245551101034875</v>
+        <v>4.568969869127907</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.6574138023282851</v>
+        <v>0.630495771946134</v>
       </c>
       <c r="B91" t="n">
-        <v>4.213900926852625</v>
+        <v>4.525334875742969</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.6857260592082345</v>
+        <v>0.6591059286805095</v>
       </c>
       <c r="B92" t="n">
-        <v>4.191089549498613</v>
+        <v>4.488289214016921</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.7140383160881839</v>
+        <v>0.7005493785665309</v>
       </c>
       <c r="B93" t="n">
-        <v>4.169497211603157</v>
+        <v>4.443257830128072</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.7423505729681333</v>
+        <v>0.7419928284525522</v>
       </c>
       <c r="B94" t="n">
-        <v>4.148993149260715</v>
+        <v>4.405532010364963</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.7706628298480828</v>
+        <v>0.7834362783385735</v>
       </c>
       <c r="B95" t="n">
-        <v>4.129466988889309</v>
+        <v>4.37314638498541</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.7989750867280322</v>
+        <v>0.8248797282245949</v>
       </c>
       <c r="B96" t="n">
-        <v>4.110824361619072</v>
+        <v>4.344809511960485</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.8700456552728659</v>
+        <v>0.8874544201919181</v>
       </c>
       <c r="B97" t="n">
-        <v>4.067415917021997</v>
+        <v>4.307964476091204</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.9411162238176997</v>
+        <v>0.9500291121592414</v>
       </c>
       <c r="B98" t="n">
-        <v>4.028075724972568</v>
+        <v>4.276393819043742</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1.012186792362533</v>
+        <v>1.012603804126565</v>
       </c>
       <c r="B99" t="n">
-        <v>3.992064050484577</v>
+        <v>4.248800278135796</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1.083257360907367</v>
+        <v>1.075178496093888</v>
       </c>
       <c r="B100" t="n">
-        <v>3.958832240432138</v>
+        <v>4.224320513218205</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1.177536664332103</v>
+        <v>1.155003196329769</v>
       </c>
       <c r="B101" t="n">
-        <v>3.918329014331141</v>
+        <v>4.196654195568132</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1.271815967756838</v>
+        <v>1.23482789656565</v>
       </c>
       <c r="B102" t="n">
-        <v>3.881238719574494</v>
+        <v>4.172233899211347</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1.366095271181573</v>
+        <v>1.314652596801531</v>
       </c>
       <c r="B103" t="n">
-        <v>3.847001716158548</v>
+        <v>4.150346552993599</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1.460374574606309</v>
+        <v>1.394477297037412</v>
       </c>
       <c r="B104" t="n">
-        <v>3.815185304454761</v>
+        <v>4.130604135470672</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1.554653878031044</v>
+        <v>1.513603597469789</v>
       </c>
       <c r="B105" t="n">
-        <v>3.785449005952205</v>
+        <v>4.104406915999779</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1.705129541837121</v>
+        <v>1.632729897902166</v>
       </c>
       <c r="B106" t="n">
-        <v>3.741639665374107</v>
+        <v>4.081512870773746</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>1.855605205643199</v>
+        <v>1.751856198334544</v>
       </c>
       <c r="B107" t="n">
-        <v>3.701595446447417</v>
+        <v>4.061346402281176</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>2.006080869449276</v>
+        <v>1.870982498766921</v>
       </c>
       <c r="B108" t="n">
-        <v>3.664680620409591</v>
+        <v>4.043585943721694</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>2.156556533255353</v>
+        <v>2.037201752685086</v>
       </c>
       <c r="B109" t="n">
-        <v>3.630408253714362</v>
+        <v>4.022329695164371</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>2.307032197061431</v>
+        <v>2.203421006603252</v>
       </c>
       <c r="B110" t="n">
-        <v>3.598397140474819</v>
+        <v>4.004499888360929</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>2.592039432951325</v>
+        <v>2.321837910314892</v>
       </c>
       <c r="B111" t="n">
-        <v>3.542933986554803</v>
+        <v>3.993429394379578</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>2.87704666884122</v>
+        <v>2.440254814026532</v>
       </c>
       <c r="B112" t="n">
-        <v>3.492983520682053</v>
+        <v>3.983267993033634</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>3.162053904731114</v>
+        <v>2.558671717738172</v>
       </c>
       <c r="B113" t="n">
-        <v>3.447453773428232</v>
+        <v>3.973712367225475</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>3.447061140621009</v>
+        <v>2.677088621449812</v>
       </c>
       <c r="B114" t="n">
-        <v>3.405549773985265</v>
+        <v>3.964559740975094</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>4.050713974492369</v>
+        <v>2.773813686430159</v>
       </c>
       <c r="B115" t="n">
-        <v>3.326235550098529</v>
+        <v>3.957291100629733</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>4.654366808363728</v>
+        <v>2.870538751410507</v>
       </c>
       <c r="B116" t="n">
-        <v>3.256717186814794</v>
+        <v>3.950170678504801</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>5.258019642235088</v>
+        <v>2.967263816390854</v>
       </c>
       <c r="B117" t="n">
-        <v>3.194511941143042</v>
+        <v>3.943177126181268</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>5.861672476106448</v>
+        <v>3.063988881371202</v>
       </c>
       <c r="B118" t="n">
-        <v>3.137973744170234</v>
+        <v>3.936294038967532</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>7.016620856876705</v>
+        <v>3.160713946351549</v>
       </c>
       <c r="B119" t="n">
-        <v>3.041661106792621</v>
+        <v>3.929508663055117</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>8.171569237646963</v>
+        <v>3.326260372308392</v>
       </c>
       <c r="B120" t="n">
-        <v>2.956740768759153</v>
+        <v>3.918100645747881</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>9.32651761841722</v>
+        <v>3.491806798265235</v>
       </c>
       <c r="B121" t="n">
-        <v>2.879980447699381</v>
+        <v>3.906927940224298</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>10.48146599918748</v>
+        <v>3.657353224222077</v>
       </c>
       <c r="B122" t="n">
-        <v>2.809277333027008</v>
+        <v>3.895971343896135</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>12.19779875417586</v>
+        <v>3.82289965017892</v>
       </c>
       <c r="B123" t="n">
-        <v>2.712282756947474</v>
+        <v>3.88521853690901</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>13.91413150916424</v>
+        <v>4.249392276499152</v>
       </c>
       <c r="B124" t="n">
-        <v>2.622217654996075</v>
+        <v>3.858372583658721</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>15.63046426415262</v>
+        <v>4.675884902819384</v>
       </c>
       <c r="B125" t="n">
-        <v>2.536835969500892</v>
+        <v>3.832637517454719</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>18.73660727592252</v>
+        <v>5.102377529139615</v>
       </c>
       <c r="B126" t="n">
-        <v>2.389141414898068</v>
+        <v>3.807879383926731</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
+        <v>5.9121653934313</v>
+      </c>
+      <c r="B127" t="n">
+        <v>3.763169476108424</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>6.721953257722984</v>
+      </c>
+      <c r="B128" t="n">
+        <v>3.720993240773053</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>7.531741122014669</v>
+      </c>
+      <c r="B129" t="n">
+        <v>3.680895685441312</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>8.961533355968939</v>
+      </c>
+      <c r="B130" t="n">
+        <v>3.614140254929551</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>10.39132558992321</v>
+      </c>
+      <c r="B131" t="n">
+        <v>3.551333615873361</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>11.82111782387748</v>
+      </c>
+      <c r="B132" t="n">
+        <v>3.491412198622887</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>13.25091005783175</v>
+      </c>
+      <c r="B133" t="n">
+        <v>3.433551628779702</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>15.31201367130205</v>
+      </c>
+      <c r="B134" t="n">
+        <v>3.352267577337288</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>17.37311728477235</v>
+      </c>
+      <c r="B135" t="n">
+        <v>3.272117380963832</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>19.43422089824265</v>
+      </c>
+      <c r="B136" t="n">
+        <v>3.191573258904053</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
         <v>20</v>
       </c>
-      <c r="B127" t="n">
-        <v>2.33010749882969</v>
+      <c r="B137" t="n">
+        <v>3.169216501346032</v>
       </c>
     </row>
   </sheetData>
